--- a/pred_ohlcv/54_21/2019-11-24 LAMB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-24 LAMB ohlcv.xlsx
@@ -1458,7 +1458,7 @@
         <v>-679740.638252239</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-671155.491152239</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-671139.491152239</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-550884.782952239</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-601961.874052239</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-601895.874052239</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-666966.7234522389</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-666966.7234522389</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-679691.8014522389</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-679691.8014522389</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-679691.8014522389</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-679691.8014522389</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-674910.5051522389</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-683653.5174522388</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-691372.6656522389</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-639400.0689522389</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-638195.6988522389</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-638195.6988522389</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-638195.6988522389</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-637695.6988522389</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-654175.589952239</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-625314.2960522389</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-625314.2960522389</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-626377.3623522389</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-616608.0391522389</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-616608.0391522389</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-541948.5289522388</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-519152.2345522388</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-373640.0177522388</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-373766.2362522389</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-386533.9862522389</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-387533.9862522389</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-365988.9428522389</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-716565.6877522389</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-611531.5441522389</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-611531.5441522389</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-611645.4041522389</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-608281.5407522388</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-605158.4958522388</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-541091.1089522388</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-466898.3785522388</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-470425.2749522388</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-493704.2102522388</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-482822.0642522388</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-570501.1693522389</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-711323.6075522389</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-711323.6075522389</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-718264.7524522388</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-718150.7524522388</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-714605.0024522388</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-710538.0024522388</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-568154.9721522388</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-568154.9721522388</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-560748.1819522388</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-561448.1819522388</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-561448.1819522388</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-561448.1819522388</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-563550.4299522388</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-563550.4299522388</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-564734.7963905949</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-595375.059090595</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-547580.766890595</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-547675.7712905949</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-518991.4218905949</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-258379.1630905948</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-173724.4261905947</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-342481.4550905947</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-341513.2734905947</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-408494.8505905947</v>
       </c>
       <c r="H318">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-408478.8505905947</v>
       </c>
       <c r="H319">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-440725.6301905947</v>
       </c>
       <c r="H320">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-440725.6301905947</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-278929.9342905947</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-289554.1241905947</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-289554.1241905947</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-321649.5872905947</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-321649.5872905947</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-328906.4452905947</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-328906.4452905947</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-328906.4452905947</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-329416.0196905947</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-335562.2800905947</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-332447.6299905947</v>
       </c>
       <c r="H332">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-332447.6299905947</v>
       </c>
       <c r="H333">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-442180.1092905947</v>
       </c>
       <c r="H334">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-439573.2919905947</v>
       </c>
       <c r="H335">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-439573.2919905947</v>
       </c>
       <c r="H336">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-441979.8728905947</v>
       </c>
       <c r="H337">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-450472.4260905947</v>
       </c>
       <c r="H338">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-443022.5682905947</v>
       </c>
       <c r="H339">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-467321.0346905947</v>
       </c>
       <c r="H340">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-466852.2846905947</v>
       </c>
       <c r="H341">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-466852.2846905947</v>
       </c>
       <c r="H342">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-466852.2846905947</v>
       </c>
       <c r="H343">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-469791.8465905947</v>
       </c>
       <c r="H344">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-472114.6274905947</v>
       </c>
       <c r="H345">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-524862.1929905947</v>
       </c>
       <c r="H346">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-523778.9537905946</v>
       </c>
       <c r="H347">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-523778.9537905946</v>
       </c>
       <c r="H348">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-472811.6958905947</v>
       </c>
       <c r="H351">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">

--- a/pred_ohlcv/54_21/2019-11-24 LAMB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-24 LAMB ohlcv.xlsx
@@ -2576,7 +2576,7 @@
         <v>-664190.494352239</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-682570.550952239</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-682070.550952239</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-666966.7234522389</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-666966.7234522389</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-679691.8014522389</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-679691.8014522389</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-679691.8014522389</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-679691.8014522389</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-674910.5051522389</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-683653.5174522388</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-691372.6656522389</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-639400.0689522389</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-638195.6988522389</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-638195.6988522389</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-638195.6988522389</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-637695.6988522389</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-654175.589952239</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-625314.2960522389</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-625314.2960522389</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-626377.3623522389</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-616608.0391522389</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-616608.0391522389</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-541948.5289522388</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-519152.2345522388</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-373640.0177522388</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-373766.2362522389</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-386533.9862522389</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-387533.9862522389</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-365988.9428522389</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-716565.6877522389</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-611531.5441522389</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-611531.5441522389</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-611645.4041522389</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-608281.5407522388</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-605158.4958522388</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-541091.1089522388</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-466898.3785522388</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-470425.2749522388</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-493704.2102522388</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-482822.0642522388</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-570501.1693522389</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-711323.6075522389</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-711323.6075522389</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-718264.7524522388</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-718150.7524522388</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-714605.0024522388</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-710538.0024522388</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-568154.9721522388</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-568154.9721522388</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-560748.1819522388</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-561448.1819522388</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-561448.1819522388</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-561448.1819522388</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-563550.4299522388</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-563550.4299522388</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-564734.7963905949</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-595375.059090595</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-547580.766890595</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-547675.7712905949</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-518991.4218905949</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-261483.2022905948</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-258379.1630905948</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-173724.4261905947</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-342481.4550905947</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-341513.2734905947</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-408494.8505905947</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-408478.8505905947</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-440725.6301905947</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-278929.9342905947</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-289554.1241905947</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-289554.1241905947</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-321649.5872905947</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-321649.5872905947</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-328906.4452905947</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-328906.4452905947</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-328906.4452905947</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-329416.0196905947</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-335562.2800905947</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-332447.6299905947</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-332447.6299905947</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-442180.1092905947</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-439573.2919905947</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-439573.2919905947</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-441979.8728905947</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-450472.4260905947</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-466852.2846905947</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-466852.2846905947</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-469791.8465905947</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-472114.6274905947</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:8">
